--- a/iselUssSyncV2/OutputWSLorientation/20220524_1414_D50L474W30Q22.8U0.41H70.5G2_S3_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1414_D50L474W30Q22.8U0.41H70.5G2_S3_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.023699999999999999</v>
+        <v>0.013550436903969579</v>
       </c>
       <c r="O2" s="0">
-        <v>0.42386850054983982</v>
+        <v>0.24234613385151052</v>
       </c>
       <c r="P2" s="0">
         <v>241.55787666666671</v>
@@ -356,10 +356,10 @@
         <v>2.3696827701000007</v>
       </c>
       <c r="R2" s="0">
-        <v>1.2026425670195735</v>
+        <v>2.1034472202157621</v>
       </c>
       <c r="S2" s="0">
-        <v>0.39919014626712823</v>
+        <v>1.2074615400269286</v>
       </c>
       <c r="T2" s="0">
         <v>0.043952356837613539</v>
@@ -383,16 +383,16 @@
         <v>190000</v>
       </c>
       <c r="AA2" s="0">
-        <v>1.9703965542917898</v>
+        <v>1.1265710626468342</v>
       </c>
       <c r="AB2" s="0">
-        <v>5.9362256114264582</v>
+        <v>1.9625327114329061</v>
       </c>
       <c r="AC2" s="0">
-        <v>3.3875135422979454</v>
+        <v>1.9368054226266158</v>
       </c>
       <c r="AD2" s="0">
-        <v>3.6145972111790341</v>
+        <v>1.807298605589517</v>
       </c>
       <c r="AE2" s="0">
         <v>30</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>9.3237391537244036</v>
+        <v>3.8993381340595219</v>
       </c>
     </row>
   </sheetData>
